--- a/fgt-tables/fgt_trabalha_agricultura_sm.xlsx
+++ b/fgt-tables/fgt_trabalha_agricultura_sm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.0260784526912991</v>
+        <v>0.02876452521823658</v>
       </c>
       <c r="C2">
-        <v>0.0004083570938611028</v>
+        <v>0.0005149878286665602</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.120856786425231</v>
+        <v>0.1190311432866847</v>
       </c>
       <c r="C3">
-        <v>0.002573899044340754</v>
+        <v>0.002449380794645012</v>
       </c>
     </row>
   </sheetData>
